--- a/doc/eficiencia.xlsx
+++ b/doc/eficiencia.xlsx
@@ -26,9 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Modelo</t>
-  </si>
-  <si>
     <t>Visualización</t>
   </si>
   <si>
@@ -36,6 +33,9 @@
   </si>
   <si>
     <t>Atributos</t>
+  </si>
+  <si>
+    <t>Carga datos</t>
   </si>
 </sst>
 </file>
@@ -162,18 +162,18 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -227,7 +227,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="es-ES" baseline="0"/>
-              <a:t> menú Visualización</a:t>
+              <a:t> visualización</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -273,7 +273,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$A$2</c:f>
+              <c:f>Hoja1!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -308,7 +308,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$B$2:$B$5</c:f>
+              <c:f>Hoja1!$C$4:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -329,7 +329,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$D$2:$D$5</c:f>
+              <c:f>Hoja1!$E$4:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
@@ -355,7 +355,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$A$6</c:f>
+              <c:f>Hoja1!$B$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -390,7 +390,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$D$6:$D$9</c:f>
+              <c:f>Hoja1!$E$8:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
@@ -416,7 +416,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$A$10</c:f>
+              <c:f>Hoja1!$B$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -451,7 +451,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$D$10:$D$13</c:f>
+              <c:f>Hoja1!$E$12:$E$15</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
@@ -477,7 +477,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$A$14</c:f>
+              <c:f>Hoja1!$B$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -512,7 +512,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$D$14:$D$17</c:f>
+              <c:f>Hoja1!$E$16:$E$19</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
@@ -543,11 +543,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="410515736"/>
-        <c:axId val="410515344"/>
+        <c:axId val="410208776"/>
+        <c:axId val="410209560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="410515736"/>
+        <c:axId val="410208776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -646,7 +646,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="410515344"/>
+        <c:crossAx val="410209560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -654,7 +654,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="410515344"/>
+        <c:axId val="410209560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -766,7 +766,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="410515736"/>
+        <c:crossAx val="410208776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -882,7 +882,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-ES"/>
-              <a:t>Latencia menú Modelo</a:t>
+              <a:t>Latencia carga</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" baseline="0"/>
+              <a:t> de datos</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -928,7 +932,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$A$2</c:f>
+              <c:f>Hoja1!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -963,7 +967,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$B$2:$B$5</c:f>
+              <c:f>Hoja1!$C$4:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -984,7 +988,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$C$2:$C$5</c:f>
+              <c:f>Hoja1!$D$4:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1010,7 +1014,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$A$6</c:f>
+              <c:f>Hoja1!$B$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1045,7 +1049,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$C$6:$C$9</c:f>
+              <c:f>Hoja1!$D$8:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1071,7 +1075,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$A$10</c:f>
+              <c:f>Hoja1!$B$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1106,7 +1110,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$C$10:$C$13</c:f>
+              <c:f>Hoja1!$D$12:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1132,7 +1136,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$A$14</c:f>
+              <c:f>Hoja1!$B$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1167,7 +1171,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$C$14:$C$17</c:f>
+              <c:f>Hoja1!$D$16:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1198,11 +1202,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="493379328"/>
-        <c:axId val="493386776"/>
+        <c:axId val="410207600"/>
+        <c:axId val="410198192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="493379328"/>
+        <c:axId val="410207600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1301,7 +1305,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493386776"/>
+        <c:crossAx val="410198192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1309,7 +1313,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="493386776"/>
+        <c:axId val="410198192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1416,7 +1420,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493379328"/>
+        <c:crossAx val="410207600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2587,16 +2591,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>74544</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>626994</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>448235</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>238685</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>177053</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2617,16 +2621,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>56029</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>181730</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>646579</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>105530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>403412</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>231962</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>181535</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2651,11 +2655,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="B1:D17" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="C3:E19" totalsRowShown="0" headerRowDxfId="3">
   <tableColumns count="3">
-    <tableColumn id="1" name="Atributos" dataDxfId="0" dataCellStyle="60% - Énfasis2"/>
-    <tableColumn id="2" name="Modelo" dataDxfId="3"/>
-    <tableColumn id="3" name="Visualización" dataDxfId="2"/>
+    <tableColumn id="1" name="Atributos" dataDxfId="2" dataCellStyle="60% - Énfasis2"/>
+    <tableColumn id="2" name="Carga datos" dataDxfId="1"/>
+    <tableColumn id="3" name="Visualización" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2924,246 +2928,248 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="B3:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K21" sqref="A1:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="2" max="2" width="11.42578125" style="2"/>
-    <col min="3" max="3" width="11.42578125" style="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="1"/>
+    <col min="3" max="3" width="11.42578125" style="2"/>
+    <col min="4" max="4" width="11.42578125" style="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="3" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="7">
         <v>2500</v>
       </c>
-      <c r="B2" s="5">
+      <c r="C4" s="5">
         <v>11</v>
       </c>
-      <c r="C2" s="3">
+      <c r="D4" s="3">
         <v>0.11</v>
       </c>
-      <c r="D2" s="3">
+      <c r="E4" s="3">
         <v>1.3120000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="8"/>
+      <c r="C5" s="5">
         <v>22</v>
       </c>
-      <c r="C3" s="3">
+      <c r="D5" s="3">
         <v>0.156</v>
       </c>
-      <c r="D3" s="3">
+      <c r="E5" s="3">
         <v>3.4049999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="5">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="8"/>
+      <c r="C6" s="5">
         <v>33</v>
       </c>
-      <c r="C4" s="3">
+      <c r="D6" s="3">
         <v>0.57799999999999996</v>
       </c>
-      <c r="D4" s="3">
+      <c r="E6" s="3">
         <v>9.91</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="5">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="9"/>
+      <c r="C7" s="5">
         <v>44</v>
       </c>
-      <c r="C5" s="3">
+      <c r="D7" s="3">
         <v>0.35899999999999999</v>
       </c>
-      <c r="D5" s="3">
+      <c r="E7" s="3">
         <v>27.349</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="7">
         <v>5000</v>
       </c>
-      <c r="B6" s="5">
+      <c r="C8" s="5">
         <v>11</v>
       </c>
-      <c r="C6" s="3">
+      <c r="D8" s="3">
         <v>0.17199999999999999</v>
       </c>
-      <c r="D6" s="3">
+      <c r="E8" s="3">
         <v>0.98399999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="5">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="8"/>
+      <c r="C9" s="5">
         <v>22</v>
       </c>
-      <c r="C7" s="3">
+      <c r="D9" s="3">
         <v>0.46899999999999997</v>
       </c>
-      <c r="D7" s="3">
+      <c r="E9" s="3">
         <v>3.2189999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="5">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="8"/>
+      <c r="C10" s="5">
         <v>33</v>
       </c>
-      <c r="C8" s="3">
+      <c r="D10" s="3">
         <v>0.51500000000000001</v>
       </c>
-      <c r="D8" s="3">
+      <c r="E10" s="3">
         <v>13.535</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="5">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="9"/>
+      <c r="C11" s="5">
         <v>44</v>
       </c>
-      <c r="C9" s="3">
+      <c r="D11" s="3">
         <v>0.59299999999999997</v>
       </c>
-      <c r="D9" s="3">
+      <c r="E11" s="3">
         <v>20.332000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="7">
         <v>7500</v>
       </c>
-      <c r="B10" s="5">
+      <c r="C12" s="5">
         <v>11</v>
       </c>
-      <c r="C10" s="3">
+      <c r="D12" s="3">
         <v>0.23400000000000001</v>
       </c>
-      <c r="D10" s="3">
+      <c r="E12" s="3">
         <v>1.032</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="5">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="8"/>
+      <c r="C13" s="5">
         <v>22</v>
       </c>
-      <c r="C11" s="3">
+      <c r="D13" s="3">
         <v>0.48399999999999999</v>
       </c>
-      <c r="D11" s="3">
+      <c r="E13" s="3">
         <v>4.2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="5">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="8"/>
+      <c r="C14" s="5">
         <v>33</v>
       </c>
-      <c r="C12" s="3">
+      <c r="D14" s="3">
         <v>0.79700000000000004</v>
       </c>
-      <c r="D12" s="3">
+      <c r="E14" s="3">
         <v>12.679</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="5">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="9"/>
+      <c r="C15" s="5">
         <v>44</v>
       </c>
-      <c r="C13" s="3">
+      <c r="D15" s="3">
         <v>0.98499999999999999</v>
       </c>
-      <c r="D13" s="3">
+      <c r="E15" s="3">
         <v>35.012</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="7">
         <v>10000</v>
       </c>
-      <c r="B14" s="5">
+      <c r="C16" s="5">
         <v>11</v>
       </c>
-      <c r="C14" s="3">
+      <c r="D16" s="3">
         <v>0.157</v>
       </c>
-      <c r="D14" s="3">
+      <c r="E16" s="3">
         <v>6.36</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="8"/>
+      <c r="C17" s="5">
         <v>22</v>
       </c>
-      <c r="C15" s="3">
+      <c r="D17" s="3">
         <v>0.70599999999999996</v>
       </c>
-      <c r="D15" s="3">
+      <c r="E17" s="3">
         <v>7.8289999999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="5">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="8"/>
+      <c r="C18" s="5">
         <v>33</v>
       </c>
-      <c r="C16" s="3">
+      <c r="D18" s="3">
         <v>0.97499999999999998</v>
       </c>
-      <c r="D16" s="3">
+      <c r="E18" s="3">
         <v>14.438000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="5">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="8"/>
+      <c r="C19" s="5">
         <v>44</v>
       </c>
-      <c r="C17" s="3">
+      <c r="D19" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D17" s="4">
+      <c r="E19" s="4">
         <v>64.322999999999993</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B8:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>